--- a/version_guide.xlsx
+++ b/version_guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\NeoBeta Remastered\minecraft\resourcepacks\Classic-Reimagined-RT3s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79591B-27FC-452F-AA1A-11ECB7A6C30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327CE39-B615-458B-820F-9E091548620E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="421" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="421" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current version changelog" sheetId="1" r:id="rId1"/>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -808,8 +808,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <f>SUM(2601,637,2026,27,41)</f>
-        <v>5332</v>
+        <f>SUM(2601,637,2026,27,44)</f>
+        <v>5335</v>
       </c>
       <c r="D2" s="6">
         <v>26.1</v>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A590D7F-A585-4A26-BECF-864B2B6E4598}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,8 +984,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(2601,637,2026,27,41)</f>
-        <v>5332</v>
+        <f>SUM(2601,637,2026,27,44)</f>
+        <v>5335</v>
       </c>
       <c r="D4" s="6">
         <v>26.1</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B7" s="20" t="str">
         <f>B6 &amp; "-build-" &amp; C4</f>
-        <v>v10.0.11_1-Classic_Reimagined_10_SE_2.1-build-5332</v>
+        <v>v10.0.11_1-Classic_Reimagined_10_SE_2.1-build-5335</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="1"/>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C10" s="6">
         <f>C4</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>27</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B13" s="20" t="str">
         <f>B12 &amp; "-build-" &amp; C10</f>
-        <v>v10.0.10-Classic_Reimagined_10_SE_2-build-5332</v>
+        <v>v10.0.10-Classic_Reimagined_10_SE_2-build-5335</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="1"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C15" s="6">
         <f>C10</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B18" s="20" t="str">
         <f>B17 &amp; "-build-" &amp; C15</f>
-        <v>v10.0.9-Classic_Reimagined_10_SE_2-build-5332</v>
+        <v>v10.0.9-Classic_Reimagined_10_SE_2-build-5335</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="1"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C20" s="6">
         <f>C15</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>29</v>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B23" s="20" t="str">
         <f>B22 &amp; "-build-" &amp; C20</f>
-        <v>v10.0.7-Classic_Reimagined_10_SE_2-build-5332</v>
+        <v>v10.0.7-Classic_Reimagined_10_SE_2-build-5335</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="1"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C25" s="6">
         <f>C20</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>30</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B28" s="20" t="str">
         <f>B27 &amp; "-build-" &amp; C25</f>
-        <v>v10.0.4-Classic_Reimagined_10_SE_2-build-5332</v>
+        <v>v10.0.4-Classic_Reimagined_10_SE_2-build-5335</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="1"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C31" s="6">
         <f>C25</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>33</v>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B34" s="20" t="str">
         <f>B33 &amp; "-build-" &amp; C31</f>
-        <v>v10.0.3-Classic_Reimagined_10_SE-build-5332</v>
+        <v>v10.0.3-Classic_Reimagined_10_SE-build-5335</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="1"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C37" s="6">
         <f>C31</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>36</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B40" s="20" t="str">
         <f>B39 &amp; "-build-" &amp; C37</f>
-        <v>v10.0.2-Classic_Reimagined_10s-build-5332</v>
+        <v>v10.0.2-Classic_Reimagined_10s-build-5335</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="1"/>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C43" s="6">
         <f>C37</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>37</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B46" s="20" t="str">
         <f>B45 &amp; "-build-" &amp; C43</f>
-        <v>v10.0.1-Classic_Reimagined_10-build-5332</v>
+        <v>v10.0.1-Classic_Reimagined_10-build-5335</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="1"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C50" s="6">
         <f>C43</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>49</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B53" s="20" t="str">
         <f>B52 &amp; "-build-" &amp; C50</f>
-        <v>v8.10.32-Classic_Reimagined_8-build-5332</v>
+        <v>v8.10.32-Classic_Reimagined_8-build-5335</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="1"/>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C56" s="6">
         <f>C50</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>50</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B59" s="20" t="str">
         <f>B58 &amp; "-build-" &amp; C56</f>
-        <v>v8.10.31-Classic_Reimagined_8-build-5332</v>
+        <v>v8.10.31-Classic_Reimagined_8-build-5335</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="1"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C62" s="6">
         <f>C56</f>
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>54</v>
@@ -1680,15 +1680,13 @@
       </c>
       <c r="B65" s="20" t="str">
         <f>B64 &amp; "-build-" &amp; C62</f>
-        <v>v7.11.3-Better_Default_7-build-5332</v>
+        <v>v7.11.3-Better_Default_7-build-5335</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -1706,6 +1704,8 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B63:C63"/>
@@ -1732,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1F5664-A36C-46AF-906D-AC064FC4072D}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2183,6 +2183,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B40:C40"/>
@@ -2198,8 +2200,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/version_guide.xlsx
+++ b/version_guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\NeoBeta Remastered\minecraft\resourcepacks\Classic-Reimagined-RT3s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327CE39-B615-458B-820F-9E091548620E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD40201-BCCB-48CF-AA87-3A837145E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="421" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,14 +485,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A590D7F-A585-4A26-BECF-864B2B6E4598}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -950,12 +950,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -995,33 +995,33 @@
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="19" t="str">
         <f xml:space="preserve"> "Classic_Reimagined_10" &amp; A2</f>
         <v>Classic_Reimagined_10_SE_2.1</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="19" t="str">
         <f>A4 &amp; "_" &amp; B4 &amp; "-" &amp; B5</f>
         <v>v10.0.11_1-Classic_Reimagined_10_SE_2.1</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="20" t="str">
+      <c r="B7" s="19" t="str">
         <f>B6 &amp; "-build-" &amp; C4</f>
         <v>v10.0.11_1-Classic_Reimagined_10_SE_2.1-build-5335</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,33 +1062,33 @@
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="19" t="str">
         <f xml:space="preserve"> "Classic_Reimagined_10" &amp; A8</f>
         <v>Classic_Reimagined_10_SE_2</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="19" t="str">
         <f>A10 &amp; "." &amp; B10 &amp; "-" &amp; B11</f>
         <v>v10.0.10-Classic_Reimagined_10_SE_2</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20" t="str">
+      <c r="B13" s="19" t="str">
         <f>B12 &amp; "-build-" &amp; C10</f>
         <v>v10.0.10-Classic_Reimagined_10_SE_2-build-5335</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1124,33 +1124,33 @@
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="20" t="str">
+      <c r="B16" s="19" t="str">
         <f xml:space="preserve"> B11</f>
         <v>Classic_Reimagined_10_SE_2</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="19" t="str">
         <f>A15 &amp; "." &amp; B15 &amp; "-" &amp; B16</f>
         <v>v10.0.9-Classic_Reimagined_10_SE_2</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="20" t="str">
+      <c r="B18" s="19" t="str">
         <f>B17 &amp; "-build-" &amp; C15</f>
         <v>v10.0.9-Classic_Reimagined_10_SE_2-build-5335</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1186,33 +1186,33 @@
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="19" t="str">
         <f xml:space="preserve"> B16</f>
         <v>Classic_Reimagined_10_SE_2</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="20" t="str">
+      <c r="B22" s="19" t="str">
         <f>A20 &amp; "." &amp; B20 &amp; "-" &amp; B21</f>
         <v>v10.0.7-Classic_Reimagined_10_SE_2</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="str">
+      <c r="B23" s="19" t="str">
         <f>B22 &amp; "-build-" &amp; C20</f>
         <v>v10.0.7-Classic_Reimagined_10_SE_2-build-5335</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1248,33 +1248,33 @@
       <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="str">
+      <c r="B26" s="19" t="str">
         <f xml:space="preserve"> B21</f>
         <v>Classic_Reimagined_10_SE_2</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="str">
+      <c r="B27" s="19" t="str">
         <f>A25 &amp; "." &amp; B25 &amp; "-" &amp; B26</f>
         <v>v10.0.4-Classic_Reimagined_10_SE_2</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="20" t="str">
+      <c r="B28" s="19" t="str">
         <f>B27 &amp; "-build-" &amp; C25</f>
         <v>v10.0.4-Classic_Reimagined_10_SE_2-build-5335</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,33 +1315,33 @@
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="20" t="str">
+      <c r="B32" s="19" t="str">
         <f xml:space="preserve"> "Classic_Reimagined_10" &amp; A29</f>
         <v>Classic_Reimagined_10_SE</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="20" t="str">
+      <c r="B33" s="19" t="str">
         <f>A31 &amp; "." &amp; B31 &amp; "-" &amp; B32</f>
         <v>v10.0.3-Classic_Reimagined_10_SE</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="20" t="str">
+      <c r="B34" s="19" t="str">
         <f>B33 &amp; "-build-" &amp; C31</f>
         <v>v10.0.3-Classic_Reimagined_10_SE-build-5335</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,32 +1382,32 @@
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="20" t="str">
+      <c r="B39" s="19" t="str">
         <f>A37 &amp; "." &amp; B37 &amp; "-" &amp; B38</f>
         <v>v10.0.2-Classic_Reimagined_10s</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="20" t="str">
+      <c r="B40" s="19" t="str">
         <f>B39 &amp; "-build-" &amp; C37</f>
         <v>v10.0.2-Classic_Reimagined_10s-build-5335</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1448,41 +1448,41 @@
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="20" t="str">
+      <c r="B45" s="19" t="str">
         <f>A43 &amp; "." &amp; B43 &amp; "-" &amp; B44</f>
         <v>v10.0.1-Classic_Reimagined_10</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="20" t="str">
+      <c r="B46" s="19" t="str">
         <f>B45 &amp; "-build-" &amp; C43</f>
         <v>v10.0.1-Classic_Reimagined_10-build-5335</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
@@ -1522,32 +1522,32 @@
       <c r="A51" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="20" t="str">
+      <c r="B52" s="19" t="str">
         <f>A50 &amp; "." &amp; B50 &amp; "-" &amp; B51</f>
         <v>v8.10.32-Classic_Reimagined_8</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="20" t="str">
+      <c r="B53" s="19" t="str">
         <f>B52 &amp; "-build-" &amp; C50</f>
         <v>v8.10.32-Classic_Reimagined_8-build-5335</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1598,22 +1598,22 @@
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="20" t="str">
+      <c r="B58" s="19" t="str">
         <f>A56 &amp; "." &amp; B56 &amp; "-" &amp; B57</f>
         <v>v8.10.31-Classic_Reimagined_8</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="20" t="str">
+      <c r="B59" s="19" t="str">
         <f>B58 &amp; "-build-" &amp; C56</f>
         <v>v8.10.31-Classic_Reimagined_8-build-5335</v>
       </c>
-      <c r="C59" s="21"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1657,55 +1657,36 @@
       <c r="A63" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="20" t="str">
+      <c r="B64" s="19" t="str">
         <f>A62 &amp; "." &amp; B62 &amp; "-" &amp; B63</f>
         <v>v7.11.3-Better_Default_7</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="20" t="str">
+      <c r="B65" s="19" t="str">
         <f>B64 &amp; "-build-" &amp; C62</f>
         <v>v7.11.3-Better_Default_7-build-5335</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B63:C63"/>
@@ -1722,6 +1703,25 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1786,21 +1786,21 @@
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="19" t="str">
         <f>A4 &amp; "." &amp; B4 &amp; "." &amp; C4 &amp; "-" &amp; B5</f>
         <v>v6.0.7-Better_Default_6</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1840,21 +1840,21 @@
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="19" t="str">
         <f>A9 &amp; "." &amp; B9 &amp; "." &amp; C9 &amp; "-" &amp; B10</f>
         <v>v1.4.0-Better_Default_5</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1894,21 +1894,21 @@
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="20" t="str">
+      <c r="B16" s="19" t="str">
         <f>A14 &amp; "." &amp; B14 &amp; "." &amp; C14 &amp; "-" &amp; B15</f>
         <v>v1.3.0-Better_Default_4</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1948,21 +1948,21 @@
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="19" t="str">
         <f>A19 &amp; "." &amp; B19 &amp; "." &amp; C19 &amp; "-" &amp; B20</f>
         <v>v1.2.2-Better_Default_3</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2002,21 +2002,21 @@
       <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="20" t="str">
+      <c r="B26" s="19" t="str">
         <f>A24 &amp; "." &amp; B24 &amp; "." &amp; C24 &amp; "-" &amp; B25</f>
         <v>v1.2.1-Better_Default_3</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2056,21 +2056,21 @@
       <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="20" t="str">
+      <c r="B31" s="19" t="str">
         <f>A29 &amp; "." &amp; B29 &amp; "." &amp; C29 &amp; "-" &amp; B30</f>
         <v>v1.2.0-Better_Default_2</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2110,21 +2110,21 @@
       <c r="A35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="20" t="str">
+      <c r="B36" s="19" t="str">
         <f>A34 &amp; "." &amp; B34 &amp; "." &amp; C34 &amp; "-" &amp; B35</f>
         <v>v1.1.1-Better_Default</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2164,35 +2164,35 @@
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="20" t="str">
+      <c r="B41" s="19" t="str">
         <f>A39 &amp; "." &amp; B39 &amp; "." &amp; C39 &amp; "-" &amp; B40</f>
         <v>v1.1.0-Better_Default</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
